--- a/Design.xlsx
+++ b/Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsl20\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsl20\Source\Repos\C-S-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8886,6 +8886,4001 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>103818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="矩形 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A2F856C-4BC2-4BAA-A8D2-A8283D2CC4A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733675" y="23707725"/>
+          <a:ext cx="8258175" cy="4990143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  本基于本模版的一个软件系统案例</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>555380</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="矩形 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B915912-963D-4895-A0D6-C69F9E47421A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="24060150"/>
+          <a:ext cx="7946780" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>硫化机上位机系统</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="矩形 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C5CE76-8E4E-42FD-951B-7650FD1F8E34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762626" y="25012651"/>
+          <a:ext cx="2038350" cy="3476624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="矩形 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AC557C-7A61-4B89-88F5-767AD6C22482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8315325" y="25012650"/>
+          <a:ext cx="2524125" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="矩形 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDFCC32-7CD9-4D59-9569-E1D21E986218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8315325" y="25936575"/>
+          <a:ext cx="2524125" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="矩形 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8351A581-F091-414C-B900-46C24083B9F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324850" y="26850975"/>
+          <a:ext cx="2524125" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="矩形 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C301404D-07A4-4F63-AC3C-554D26B4F517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324850" y="27727275"/>
+          <a:ext cx="2524125" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="矩形 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD662E49-67A0-4320-9763-09697CC0D683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="25012650"/>
+          <a:ext cx="2524125" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>生产线</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="矩形 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8C4468-8495-4E65-8281-1644B84CC945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="25936575"/>
+          <a:ext cx="2524125" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>生产线</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="矩形 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6436E8BF-68FE-42DA-8466-29A26616E953}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="26850975"/>
+          <a:ext cx="2524125" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>生产线</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="矩形 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE98AA37-6FF3-46E2-BB1F-89C46DC7939B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="27727275"/>
+          <a:ext cx="2524125" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>生产线</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>116497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="矩形 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B79BE4D-0A3C-45A5-9AFD-3D60A5A8C41C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019426" y="25374600"/>
+          <a:ext cx="361949" cy="259372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>116497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="矩形 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0245550F-0E22-42BA-9C1C-E73C1F7713E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="25374600"/>
+          <a:ext cx="361949" cy="259372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>116497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="矩形 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F408EBAD-4015-4CA7-92F0-195E6C3B78B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3985022" y="25041225"/>
+          <a:ext cx="396478" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53578</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>116497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="矩形 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEFD6AA-4C25-4FB9-91DC-837E4605E2D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4460081" y="25041225"/>
+          <a:ext cx="385763" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>116497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="矩形 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B17052-CA1C-44E7-8C43-1625A997FD87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="25374600"/>
+          <a:ext cx="361949" cy="259372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="矩形 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F54BDD3-091D-42DB-B3B0-9974401F9EB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6117771" y="25431750"/>
+          <a:ext cx="1273629" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PLC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>网络层</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>数据采集反馈</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>631370</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="矩形 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F32BFC3-8D3E-49A0-A83C-1927D8A8DFB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6117770" y="26241376"/>
+          <a:ext cx="1273629" cy="514349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PLC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>异步网络</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635454</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>537482</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="矩形 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB098035-F13C-46C9-969D-A3ACA0AF3232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6121854" y="26965276"/>
+          <a:ext cx="1273628" cy="590549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PLC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>同步网络</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311942</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>75010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>244077</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="矩形 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57A988D-D86C-4FDD-9C6D-0B0FBA11139A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5104208" y="23827979"/>
+          <a:ext cx="4039791" cy="258366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HslCommunication.Profinet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>命名空间</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>提供读写支持</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>341709</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>422672</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>11815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="矩形 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52285403-E910-47B7-AF95-29341A8D5885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3080147" y="24217312"/>
+          <a:ext cx="2819400" cy="261847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>三菱以太网模块</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>QJ71E71-100</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="矩形 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F2E44C-3CF6-4DF9-8F83-1CE0F6ED3B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6072187" y="24214931"/>
+          <a:ext cx="4446985" cy="261847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>西门子以太网模块</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6GK7 343-1EX30-0E0 CP343-1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>258365</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>620314</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>130784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="矩形 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236B8379-8C29-47C4-8E9F-96B5793FF4D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2996803" y="25948481"/>
+          <a:ext cx="361949" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>67864</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>429813</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>130784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="矩形 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3822AF56-0729-44C8-931C-254084CD8BA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3490911" y="25948481"/>
+          <a:ext cx="361949" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>544114</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>255983</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>130784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="矩形 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F207F8A-63D7-4EFB-BFB9-61C536B8F8B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3967161" y="25948481"/>
+          <a:ext cx="396478" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>334564</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>130784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="矩形 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A372A8-3BE3-42FF-AB97-7D4216FBEFA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4442220" y="25948481"/>
+          <a:ext cx="385763" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>105964</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467913</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>130784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="矩形 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B442C57E-1A7F-43D3-9643-1E24D159753B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4898230" y="25948481"/>
+          <a:ext cx="361949" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273843</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>67865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635792</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>146263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="矩形 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEE9184-0E8A-4C2C-86B4-60EE2B684BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3012281" y="26856928"/>
+          <a:ext cx="361949" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>67865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>445291</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>146263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="矩形 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3C373B-D9FC-4019-B27D-0AD10B9B17EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3506389" y="26856928"/>
+          <a:ext cx="361949" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>559592</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>67865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>146263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="矩形 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7F7D77-6A7C-4F81-B632-58732631811E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3982639" y="26856928"/>
+          <a:ext cx="396478" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350042</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>67865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>51195</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>146263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="矩形 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CAA203-2FEB-4EA3-96E6-D7FB0EE0088D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457698" y="26856928"/>
+          <a:ext cx="385763" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121442</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>67865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>483391</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>146263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="矩形 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FBB89F-9B65-4B73-BFBD-4B04B78B00FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4913708" y="26856928"/>
+          <a:ext cx="361949" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>291703</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>653652</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>123641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="矩形 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB73CFCE-E6FF-4E11-B03A-4A5283AC323E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3030141" y="27727275"/>
+          <a:ext cx="361949" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101202</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>463151</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>123641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="矩形 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA001E27-D4A7-400D-8C0C-4162B9AC33F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524249" y="27727275"/>
+          <a:ext cx="361949" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577452</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289321</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>123641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="矩形 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB81305-2736-4BB8-A2CC-23F453221670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000499" y="27727275"/>
+          <a:ext cx="396478" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>367902</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69055</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>123641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="矩形 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE68F4A9-FF76-4901-BD01-85B0CA8B16F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4475558" y="27727275"/>
+          <a:ext cx="385763" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139302</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>501251</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>123641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="矩形 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC226ABC-31C7-483D-AE60-06E3890902F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4931568" y="27727275"/>
+          <a:ext cx="361949" cy="256991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>127263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="矩形 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789CF8CA-D8EC-40CE-B2E7-0E91DF220726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467725" y="25384125"/>
+          <a:ext cx="2190750" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>在线监视设备情况</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>127263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="矩形 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C724DE8B-147B-4168-92DB-C49F4757F375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467725" y="26289000"/>
+          <a:ext cx="2190750" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>查看轮胎数据报表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>155838</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="矩形 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F7A737-B72B-4BD2-AC4D-5A279FCCB55C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467725" y="27222450"/>
+          <a:ext cx="2190750" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>查看报警信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>127263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="矩形 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0441AF33-C4AA-4D9C-B740-C4C033B22557}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477250" y="28098750"/>
+          <a:ext cx="2190750" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>下传工艺数据</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直接箭头连接符 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B81A231-CF1E-4716-ADBF-2A95E2A1BC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="161" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419725" y="25388888"/>
+          <a:ext cx="695325" cy="138112"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="231" name="直接箭头连接符 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BF388E-3FCA-45CD-89CC-F9E405B8C7EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="163" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5419725" y="25622250"/>
+          <a:ext cx="695325" cy="690563"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="直接箭头连接符 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19B32F7-E0A3-42EE-9C1D-C04BBD150D5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="165" idx="3"/>
+          <a:endCxn id="202" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5429250" y="25760363"/>
+          <a:ext cx="688521" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="237" name="直接箭头连接符 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9723ABE0-6708-45A4-84A8-DF0CB993FFC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="167" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5429250" y="25974675"/>
+          <a:ext cx="676275" cy="2128838"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="240" name="直接箭头连接符 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A13F74B-C309-4C23-8857-1EEAE7537BE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="154" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7381875" y="25388888"/>
+          <a:ext cx="933450" cy="928687"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="矩形 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E15C3C7-6FB6-4A81-96D3-B766265DD129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115051" y="27746326"/>
+          <a:ext cx="1273628" cy="590549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>数据库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="250" name="直接箭头连接符 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12EFDC4D-8F09-4EFC-A27B-0A4C3B861F25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="248" idx="3"/>
+          <a:endCxn id="155" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7388679" y="26312813"/>
+          <a:ext cx="926646" cy="1728788"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>537482</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="253" name="直接箭头连接符 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3087BA55-6EB6-4B14-8DE2-83D2B742928B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="159" idx="1"/>
+          <a:endCxn id="206" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7395482" y="27260551"/>
+          <a:ext cx="929368" cy="842962"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="258" name="直接箭头连接符 257">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E66F7A-4505-489B-98E7-C3E2598AB4DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7800975" y="27470100"/>
+          <a:ext cx="533400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635454</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="260" name="连接符: 肘形 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374F5FAE-84B2-43DC-88B8-EAD230A7E771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="206" idx="1"/>
+          <a:endCxn id="202" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6121854" y="25760363"/>
+          <a:ext cx="1269546" cy="1500188"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -18006"/>
+            <a:gd name="adj2" fmla="val 28572"/>
+            <a:gd name="adj3" fmla="val 118006"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9190,8 +13185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S115" sqref="S115"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X148" sqref="X148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -8953,7 +8953,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>  本基于本模版的一个软件系统案例</a:t>
+            <a:t>  基于本模版的一个软件系统案例</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10430,7 +10430,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>PLC</a:t>
+            <a:t>TCP</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
@@ -10525,7 +10525,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>PLC</a:t>
+            <a:t>TCP</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
@@ -12861,6 +12861,2264 @@
             <a:gd name="adj2" fmla="val 28572"/>
             <a:gd name="adj3" fmla="val 118006"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>94293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="矩形 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D43774-2349-4C6F-BA75-2A3DD15AE2C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733675" y="29851350"/>
+          <a:ext cx="8258175" cy="4990143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C-S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>模版的头像功能设计</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="矩形 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D502D97C-7E85-4AE0-9942-E2507844384B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="30318074"/>
+          <a:ext cx="2266950" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="矩形 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8325A9B5-E0C3-41C5-A6D3-E48214865550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="30318075"/>
+          <a:ext cx="5029200" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>146313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="矩形 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECA2E03-FDF6-4D8F-8712-A1D6E0078E67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="30832425"/>
+          <a:ext cx="1790700" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>主窗口启动</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>70113</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="矩形 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63E279A-4479-4381-9C58-6805421C922C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="31299150"/>
+          <a:ext cx="1790700" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>获取服务器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>md5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>155838</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="矩形 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8FE9E1-4E01-48A8-B79F-887D8D9FA6A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="31746825"/>
+          <a:ext cx="1790700" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>与本地文件校验</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>3438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="矩形 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC2D6CA-A8C5-48CB-AA21-CB34BD4BAFA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="33223200"/>
+          <a:ext cx="1790700" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>连接服务器下载头像</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>89163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="矩形 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77347BC5-06A2-4153-8CE5-746397AFE9A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="33670875"/>
+          <a:ext cx="1790700" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>本地覆盖保存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>146313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="矩形 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8389AE8-A720-494C-859E-E6CDDAF3574A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="34089975"/>
+          <a:ext cx="1790700" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>加载显示头像</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>146313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B32E520-55FD-499D-8478-BCD4D75612D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="177" idx="2"/>
+          <a:endCxn id="178" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="31093038"/>
+          <a:ext cx="0" cy="206112"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>70113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C11742-8E40-4ACD-B0BC-98B55816EEFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="178" idx="2"/>
+          <a:endCxn id="185" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="31559763"/>
+          <a:ext cx="0" cy="187062"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>25532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="连接符: 肘形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C89EE0-D247-43D7-83C1-F380BF9931F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="185" idx="1"/>
+          <a:endCxn id="187" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="6153150" y="31877132"/>
+          <a:ext cx="876300" cy="1346068"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -26087"/>
+            <a:gd name="adj2" fmla="val 54840"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文本框 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B400A08-717E-4DDD-BF6C-1D6E4B0FDA47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="32394525"/>
+          <a:ext cx="1595309" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>文件不存在或校验失败</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>3438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4774CB47-A871-4FF5-B4B5-C915F42CCCF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="2"/>
+          <a:endCxn id="188" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7029450" y="33483813"/>
+          <a:ext cx="0" cy="187062"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>89163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEED9CA6-0FA2-4D51-9507-6D195A910EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="2"/>
+          <a:endCxn id="189" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7029450" y="33931488"/>
+          <a:ext cx="0" cy="158487"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>136788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="矩形 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5265D559-1B5C-4F02-8EC7-7D556BEC63E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="30822900"/>
+          <a:ext cx="1790700" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>变更头像</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>60588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="矩形 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3CBCD5-1323-445A-BE04-6069CC4D7A84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="31289625"/>
+          <a:ext cx="1790700" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>选择图片</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>146313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="矩形 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5830F8-54FC-4A17-97FC-7699A99EDCD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="31737300"/>
+          <a:ext cx="1790700" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>本地存储</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>174888</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="229" name="矩形 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0F8183-3505-4A96-8A12-8B8DC8F3C0DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="33213675"/>
+          <a:ext cx="1790700" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>上传服务器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>79638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="矩形 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393786C2-F930-43D7-8937-CA36B55BEDCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="33661350"/>
+          <a:ext cx="1790700" cy="260613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>重新加载</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>136788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD86932E-7914-4D24-92CE-EB3274EDB778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="197" idx="2"/>
+          <a:endCxn id="198" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="31083513"/>
+          <a:ext cx="0" cy="206112"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>60588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C31E9E5-9143-4913-82BF-2852FAD7A25E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="198" idx="2"/>
+          <a:endCxn id="204" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="31550238"/>
+          <a:ext cx="0" cy="187062"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>146313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接箭头连接符 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2157A9-A611-4FB5-9A95-35CB62449D69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="204" idx="2"/>
+          <a:endCxn id="229" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="31997913"/>
+          <a:ext cx="0" cy="1215762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>174888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接箭头连接符 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8E6C91-4968-4D8B-8705-728D2696A80F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="229" idx="2"/>
+          <a:endCxn id="230" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="33474288"/>
+          <a:ext cx="0" cy="187062"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>120782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>130307</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="连接符: 肘形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E37F15-AC28-4064-B422-3078F2F7FE17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="230" idx="1"/>
+          <a:endCxn id="178" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7943850" y="31429457"/>
+          <a:ext cx="571500" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8285</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>124556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="232" name="矩形 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7C06CA-6D84-4B71-800B-15FBA2F0BB63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3409950" y="32670749"/>
+          <a:ext cx="1398935" cy="1658082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TCP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>同步网络</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8285</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>48356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="矩形 232">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E68BDF-5C0B-4A8A-B09D-98E29A6E2846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3409950" y="30784799"/>
+          <a:ext cx="1398935" cy="1658082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>文件网络</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>头像管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8285</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>54107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>19415</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="连接符: 肘形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A2331B-1912-4B85-872B-127B304C3EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="232" idx="3"/>
+          <a:endCxn id="187" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4808885" y="33353507"/>
+          <a:ext cx="1325215" cy="146283"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>44582</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="连接符: 肘形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B6F92CC-FC42-4BA2-84DC-8AE25AE691B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="229" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4800600" y="32213550"/>
+          <a:ext cx="5505450" cy="1130432"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4152"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>120782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直接箭头连接符 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135C41C6-2BF2-4BF5-A4E6-D5A3F8D93A76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="178" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5543550" y="31429457"/>
+          <a:ext cx="609600" cy="3043"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="直接连接符 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EB98EC-9DAE-4179-90BF-42CAC8DE662C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553075" y="31442025"/>
+          <a:ext cx="0" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="直接箭头连接符 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA08C7C-B07A-4D82-83C4-5080E2E37D75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4829175" y="32994600"/>
+          <a:ext cx="723900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -13185,8 +15443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X148" sqref="X148"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S176" sqref="S176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -13794,9 +13794,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -13812,7 +13812,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="32394525"/>
+          <a:off x="5810250" y="32632650"/>
           <a:ext cx="1595309" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15141,6 +15141,128 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>16006</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="连接符: 肘形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A817093-906C-4ADE-B1B0-75F60D271D84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="189" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6597584" y="32893065"/>
+          <a:ext cx="2206757" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47048"/>
+            <a:gd name="adj2" fmla="val 138298"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文本框 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC3A6C8-84CB-41B8-AFE4-184415A6E8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="32804100"/>
+          <a:ext cx="748923" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>校验成功</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15443,8 +15565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S176" sqref="S176"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S185" sqref="S185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -122,8 +122,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2729120" y="1169504"/>
-          <a:ext cx="8279709" cy="5025887"/>
+          <a:off x="2724150" y="1162050"/>
+          <a:ext cx="8258175" cy="4991100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -828,8 +828,8 @@
       <xdr:rowOff>10768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>231913</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>99391</xdr:rowOff>
     </xdr:to>
@@ -846,8 +846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4413994" y="3307883"/>
-          <a:ext cx="4771419" cy="2653046"/>
+          <a:off x="4396409" y="3268318"/>
+          <a:ext cx="3776041" cy="2622273"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -917,16 +917,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>107673</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -941,8 +941,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9632674" y="3298963"/>
-          <a:ext cx="1183998" cy="2639667"/>
+          <a:off x="8724900" y="3276600"/>
+          <a:ext cx="923925" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -975,6 +975,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>winform</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:solidFill>
@@ -1048,15 +1058,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600490</xdr:colOff>
+      <xdr:colOff>112230</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>127073</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>608556</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>10767</xdr:rowOff>
+      <xdr:rowOff>10768</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1073,8 +1083,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6678080" y="3178829"/>
-          <a:ext cx="250040" cy="8066"/>
+          <a:off x="6165781" y="3147599"/>
+          <a:ext cx="239368" cy="2070"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1105,13 +1115,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>631658</xdr:colOff>
+      <xdr:colOff>260183</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>130342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600282</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -1130,8 +1140,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6818767" y="3045820"/>
-          <a:ext cx="3405906" cy="253143"/>
+          <a:off x="6432383" y="3025942"/>
+          <a:ext cx="2754480" cy="250658"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1618,8 +1628,8 @@
       <xdr:rowOff>84356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>644769</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>168519</xdr:rowOff>
     </xdr:to>
@@ -1636,8 +1646,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6362634" y="3747818"/>
-          <a:ext cx="2546904" cy="1915893"/>
+          <a:off x="6336257" y="3703856"/>
+          <a:ext cx="1645693" cy="1893913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1756,8 +1766,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3843130" y="4610515"/>
-          <a:ext cx="563218" cy="3520"/>
+          <a:off x="3834847" y="4579455"/>
+          <a:ext cx="561562" cy="3520"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1786,16 +1796,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>231913</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>63362</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1806,15 +1816,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="25" idx="3"/>
-          <a:endCxn id="26" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9168848" y="4610515"/>
-          <a:ext cx="463826" cy="8282"/>
+          <a:off x="8172450" y="3657600"/>
+          <a:ext cx="552450" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15263,6 +15270,333 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="矩形 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5B94E1-A9BA-4CC0-A06E-4BAD88772DC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8734425" y="4629150"/>
+          <a:ext cx="923925" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>wpf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="直接箭头连接符 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44121FD8-C128-4E52-840B-1E7ABD4BE87C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="5010150"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="238" name="矩形 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D7748A-8BD6-4F1A-BB86-DE26F26A389B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="3286125"/>
+          <a:ext cx="790575" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端公共组件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接箭头连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8570718C-652D-4F92-8611-7488D9DBB04D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9648825" y="3900488"/>
+          <a:ext cx="361950" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="直接箭头连接符 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7763C98-242C-4B97-B54D-64276EA96FD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9648825" y="5257800"/>
+          <a:ext cx="381000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15565,8 +15899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S185" sqref="S185"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -699,6 +699,19 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>winform</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="accent5">
@@ -920,13 +933,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -941,8 +954,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8724900" y="3276600"/>
-          <a:ext cx="923925" cy="1247775"/>
+          <a:off x="8724900" y="3276601"/>
+          <a:ext cx="923925" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1123,7 +1136,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>271463</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1141,7 +1154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6432383" y="3025942"/>
-          <a:ext cx="2754480" cy="250658"/>
+          <a:ext cx="2754480" cy="250659"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1799,13 +1812,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1820,7 +1833,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8172450" y="3657600"/>
+          <a:off x="8172450" y="3619500"/>
           <a:ext cx="552450" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -15274,7 +15287,334 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="矩形 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5B94E1-A9BA-4CC0-A06E-4BAD88772DC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8734425" y="4181476"/>
+          <a:ext cx="923925" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>wpf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="直接箭头连接符 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44121FD8-C128-4E52-840B-1E7ABD4BE87C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="4562475"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="238" name="矩形 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D7748A-8BD6-4F1A-BB86-DE26F26A389B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="3286125"/>
+          <a:ext cx="790575" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端公共组件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接箭头连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8570718C-652D-4F92-8611-7488D9DBB04D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9648825" y="3629025"/>
+          <a:ext cx="342900" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="直接箭头连接符 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7763C98-242C-4B97-B54D-64276EA96FD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9648825" y="4572000"/>
+          <a:ext cx="381000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -15285,10 +15625,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="235" name="矩形 234">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5B94E1-A9BA-4CC0-A06E-4BAD88772DC8}"/>
+        <xdr:cNvPr id="241" name="矩形 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C082C66-A3B2-42A6-AD76-88A08841AA69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15296,8 +15636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8734425" y="4629150"/>
-          <a:ext cx="923925" cy="1247775"/>
+          <a:off x="8734425" y="5172075"/>
+          <a:ext cx="923925" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15338,7 +15678,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>wpf</a:t>
+            <a:t>web</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15362,21 +15702,21 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="236" name="直接箭头连接符 235">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44121FD8-C128-4E52-840B-1E7ABD4BE87C}"/>
+        <xdr:cNvPr id="242" name="直接箭头连接符 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7E38B6-A54E-41CA-B8E0-4BCAA1047E12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15384,7 +15724,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8172450" y="5010150"/>
+          <a:off x="8172450" y="5553074"/>
           <a:ext cx="581025" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -15415,153 +15755,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="238" name="矩形 237">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D7748A-8BD6-4F1A-BB86-DE26F26A389B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10001250" y="3286125"/>
-          <a:ext cx="790575" cy="2581275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>客户端公共组件</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直接箭头连接符 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8570718C-652D-4F92-8611-7488D9DBB04D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9648825" y="3900488"/>
-          <a:ext cx="361950" cy="4762"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="239" name="直接箭头连接符 238">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7763C98-242C-4B97-B54D-64276EA96FD5}"/>
+        <xdr:cNvPr id="243" name="直接箭头连接符 242">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688C4E42-169D-4A18-A278-7F2E3BEF2445}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15569,7 +15778,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9648825" y="5257800"/>
+          <a:off x="9648825" y="5562599"/>
           <a:ext cx="381000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -15900,7 +16109,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsl20\Source\Repos\C-S-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\C-S-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2128,7 +2128,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>447261</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2144,7 +2144,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5668619" y="6918463"/>
-          <a:ext cx="5065642" cy="3054211"/>
+          <a:ext cx="5065642" cy="3187562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2449,8 +2449,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>61244</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2466,7 +2466,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6045042" y="7892869"/>
-          <a:ext cx="3108484" cy="312250"/>
+          <a:ext cx="3108484" cy="574856"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2519,7 +2519,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>验证账户名和密码，通过则往下走</a:t>
+            <a:t>验证账户名和密码，验证客户端是否信任，通过则往下走</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
             <a:solidFill>
@@ -2539,13 +2539,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>488675</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>41410</xdr:rowOff>
+      <xdr:rowOff>174760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>541421</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>165649</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>118024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2560,8 +2560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4609491" y="7982252"/>
-          <a:ext cx="1426351" cy="124239"/>
+          <a:off x="4603475" y="8137660"/>
+          <a:ext cx="1424346" cy="124239"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
@@ -2598,14 +2598,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>558642</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>127509</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>13209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>77809</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>144484</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2620,7 +2620,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6045042" y="8452359"/>
+          <a:off x="6045042" y="8700009"/>
           <a:ext cx="3108484" cy="312250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2693,14 +2693,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>488674</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>57975</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>115125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>541421</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>1740</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>58890</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2715,8 +2715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4609490" y="8540238"/>
-          <a:ext cx="1426352" cy="124239"/>
+          <a:off x="4603474" y="8801925"/>
+          <a:ext cx="1424347" cy="124740"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
@@ -2753,14 +2753,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>551189</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>126725</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>155300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>230673</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>77025</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>105600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2775,7 +2775,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6037589" y="8994500"/>
+          <a:off x="6037589" y="9204050"/>
           <a:ext cx="3108484" cy="312250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2848,14 +2848,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>481221</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>57191</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533968</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>956</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>20006</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2870,7 +2870,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4596021" y="9105941"/>
+          <a:off x="4596021" y="9305966"/>
           <a:ext cx="1424347" cy="124740"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
@@ -2908,13 +2908,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>553694</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>98563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>233178</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>48863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2930,7 +2930,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6040094" y="9509263"/>
+          <a:off x="6040094" y="9690238"/>
           <a:ext cx="3108484" cy="312250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3147,14 +3147,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>681403</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>73270</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>149470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>80596</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>109903</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>5128</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3169,8 +3169,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7568711" y="8316058"/>
-          <a:ext cx="87923" cy="219807"/>
+          <a:off x="7539403" y="8474320"/>
+          <a:ext cx="84993" cy="217608"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3207,14 +3207,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>681403</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>80596</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>128221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>65943</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>109904</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3229,8 +3229,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7568711" y="8872904"/>
-          <a:ext cx="73270" cy="212481"/>
+          <a:off x="7539403" y="8995996"/>
+          <a:ext cx="70340" cy="210283"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3267,13 +3267,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>674076</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>65943</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3289,8 +3289,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7561384" y="9437077"/>
-          <a:ext cx="80597" cy="183173"/>
+          <a:off x="7532076" y="9505950"/>
+          <a:ext cx="77667" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3389,8 +3389,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>399317</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>86094</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>36422</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3408,8 +3408,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9191626" y="7451986"/>
-          <a:ext cx="849922" cy="693723"/>
+          <a:off x="9153526" y="7364063"/>
+          <a:ext cx="846991" cy="816234"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3438,9 +3438,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>646681</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>102659</xdr:rowOff>
+      <xdr:colOff>645215</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -3464,13 +3464,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8222719" y="8711794"/>
-          <a:ext cx="968907" cy="1729071"/>
+          <a:off x="8189015" y="8856134"/>
+          <a:ext cx="964511" cy="1459441"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -137025"/>
-            <a:gd name="adj2" fmla="val 88054"/>
+            <a:gd name="adj1" fmla="val -79991"/>
+            <a:gd name="adj2" fmla="val 89939"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4200,7 +4200,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>SoftLogHelper</a:t>
+            <a:t>ILogNet</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
@@ -4211,7 +4211,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>日志类提供网络异常记录服务</a:t>
+            <a:t>日志接口提供网络异常记录服务</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
             <a:solidFill>
@@ -6403,8 +6403,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>65942</xdr:rowOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6419,8 +6419,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4791486" y="18622809"/>
-          <a:ext cx="1403905" cy="1669263"/>
+          <a:off x="4781547" y="18496085"/>
+          <a:ext cx="1398935" cy="2030290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6660,14 +6660,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>659424</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>157370</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>4970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6682,8 +6682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4784163" y="20590565"/>
-          <a:ext cx="1419512" cy="1068457"/>
+          <a:off x="4774224" y="20745450"/>
+          <a:ext cx="1414542" cy="976520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7235,14 +7235,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>406485</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>7331</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>150206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>113408</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>86969</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>48869</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7257,8 +7257,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3156311" y="20597896"/>
-          <a:ext cx="1081836" cy="261856"/>
+          <a:off x="3149685" y="20781356"/>
+          <a:ext cx="1078523" cy="260613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7487,14 +7487,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>406485</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>32179</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>136954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>113408</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>111818</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>35618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7509,8 +7509,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3156311" y="20987179"/>
-          <a:ext cx="1081836" cy="261856"/>
+          <a:off x="3149685" y="21130054"/>
+          <a:ext cx="1078523" cy="260614"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7571,14 +7571,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>406485</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>57023</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>114173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>113408</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>136662</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>12837</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7593,8 +7593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3156311" y="21376458"/>
-          <a:ext cx="1081836" cy="261856"/>
+          <a:off x="3149685" y="21469223"/>
+          <a:ext cx="1078523" cy="260614"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7955,14 +7955,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>133159</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>81871</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>43771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>646680</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>172980</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>134880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7977,7 +7977,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257898" y="20672436"/>
+          <a:off x="4247959" y="20855896"/>
           <a:ext cx="513521" cy="91109"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -8015,14 +8015,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>133159</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>106718</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>30518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>646680</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>15610</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>120385</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8037,8 +8037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257898" y="21061718"/>
-          <a:ext cx="513521" cy="91109"/>
+          <a:off x="4247959" y="21204593"/>
+          <a:ext cx="513521" cy="89867"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -8075,14 +8075,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>124876</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>139849</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>16024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638397</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>48741</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>105891</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8097,8 +8097,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4249615" y="21459284"/>
-          <a:ext cx="513521" cy="91109"/>
+          <a:off x="4239676" y="21552049"/>
+          <a:ext cx="513521" cy="89867"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -8464,8 +8464,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>650189</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>57659</xdr:rowOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8480,8 +8480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7495762" y="18614526"/>
-          <a:ext cx="1403905" cy="1669263"/>
+          <a:off x="7479197" y="18487802"/>
+          <a:ext cx="1400592" cy="2029048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8553,14 +8553,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>596349</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>160873</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>640948</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>136026</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>145551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8575,8 +8575,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7470914" y="20569221"/>
-          <a:ext cx="1419512" cy="1068457"/>
+          <a:off x="7454349" y="20716875"/>
+          <a:ext cx="1416199" cy="964701"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8649,13 +8649,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>579784</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>61482</xdr:rowOff>
+      <xdr:rowOff>71007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>623429</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>131565</xdr:rowOff>
+      <xdr:rowOff>141090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8670,8 +8670,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7454349" y="21927569"/>
-          <a:ext cx="1418558" cy="616735"/>
+          <a:off x="7437784" y="21788007"/>
+          <a:ext cx="1415245" cy="613008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8792,14 +8792,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>14335</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>127744</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>42019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>618965</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>53197</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>148447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8814,8 +8814,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6201444" y="21082744"/>
-          <a:ext cx="1292086" cy="107670"/>
+          <a:off x="6186535" y="21216094"/>
+          <a:ext cx="1290430" cy="106428"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
@@ -15804,6 +15804,150 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>415469</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>160364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>122392</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>57786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="244" name="矩形 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C35C90-5670-4E36-B339-CAFC96516B2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3158669" y="20248589"/>
+          <a:ext cx="1078523" cy="259372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>系统配置</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133861</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>69256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647382</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>160365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="245" name="箭头: 右 244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA99D6D-D064-47AA-ABD0-0484296B0763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248661" y="20338456"/>
+          <a:ext cx="513521" cy="91109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16108,8 +16252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T119" sqref="T119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +36,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -74,7 +82,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14892,15 +14900,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>8285</xdr:colOff>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>184</xdr:row>
       <xdr:rowOff>54107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>19415</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14912,14 +14920,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="232" idx="3"/>
           <a:endCxn id="187" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4808885" y="33353507"/>
-          <a:ext cx="1325215" cy="146283"/>
+        <a:xfrm>
+          <a:off x="4835769" y="32758673"/>
+          <a:ext cx="1321777" cy="999280"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -15945,6 +15952,1884 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>106017</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="矩形 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073BE596-DFAD-4124-B9E6-469D6C86A553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733675" y="35652075"/>
+          <a:ext cx="8258175" cy="4992342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C-S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>系统权限及角色模型设计</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>104361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="矩形 246">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6242A5-A4A2-4086-8137-13DFF36CB95D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962274" y="36052125"/>
+          <a:ext cx="3457576" cy="4409661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>权限设计</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>106817</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="矩形 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589374D7-D85D-45F8-8CC7-1DE44DAC8717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200401" y="36537900"/>
+          <a:ext cx="1219199" cy="487817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>超级管理员</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>125867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="矩形 250">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AED7515-8A42-4098-A02B-FD4EDE876B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190874" y="37461825"/>
+          <a:ext cx="1209676" cy="487817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>管理员</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>40142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="矩形 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C01888A-FD3B-4F34-9BD8-1D8050948346}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181349" y="38461950"/>
+          <a:ext cx="1219201" cy="487817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>技术员</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>97292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="矩形 253">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59849F29-8933-45A3-A260-5CB5F1D32879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190874" y="39423975"/>
+          <a:ext cx="1200151" cy="487817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>普通</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="矩形 254">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF5511D-ECB2-4289-9AF3-6E8DA509AC4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781549" y="36528375"/>
+          <a:ext cx="1438276" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>四个等级的权限设计仅仅应用于系统的管理员区别，不带有任何的业务逻辑，区分那些账户有注册账号的功能，甚至是配置系统参数功能</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>104361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="矩形 255">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A357B04D-E7BE-4AEF-8557-CB930DA420DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="36052125"/>
+          <a:ext cx="4152900" cy="4409661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>业务逻辑相关的角色设计</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>42406</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E609AC9-30D4-449E-9EBD-E952CD6D6026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="249" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4403834" y="37377414"/>
+          <a:ext cx="378373" cy="2992"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289035</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>663466</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>72259</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A855C3C-8EA0-477E-83F3-54DFA8E3A397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4388069" y="38323345"/>
+          <a:ext cx="374431" cy="6569"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>157656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>663466</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>159662</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB64E851-D893-479C-BF6E-1A6A4293BDA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="252" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4384784" y="39334966"/>
+          <a:ext cx="377716" cy="2006"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>32844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>670035</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>32880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834629B3-D43B-43E8-8DE9-445C2D89B1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="254" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4375259" y="40313741"/>
+          <a:ext cx="393810" cy="36"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>655254</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>152729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502852</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>97621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="257" name="矩形 256">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274C14BF-8305-4C61-A666-32CE023605B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6803806" y="37122867"/>
+          <a:ext cx="1213943" cy="496685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>角色</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>655254</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>172436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502852</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>117328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="矩形 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70AE21D-C998-4CB1-9FC0-5451908BC1AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6803806" y="37878298"/>
+          <a:ext cx="1213943" cy="496685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>角色</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>648685</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>152729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>496283</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>97621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="261" name="矩形 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5833C0D-AAB3-4115-961F-3F2D1A1B5E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6797237" y="38594315"/>
+          <a:ext cx="1213943" cy="496685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>角色</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>m</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392496</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>152729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>240094</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>97621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="262" name="矩形 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29887406-15B3-4903-A386-5D68CF2BE757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9273737" y="37122867"/>
+          <a:ext cx="1213943" cy="496685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>账户</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>385928</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>133022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>233526</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>77914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="263" name="矩形 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6007D15A-D619-4869-9FF7-A859BCB8339F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9267169" y="37838884"/>
+          <a:ext cx="1213943" cy="496685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>账户</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>385927</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>139591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>233525</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>84483</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="矩形 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E7D54B-F77A-4324-BB8C-897249E1E14D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9267168" y="38581177"/>
+          <a:ext cx="1213943" cy="496685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>账户</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392496</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>172436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>240094</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>117328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="265" name="矩形 264">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C09CA76-366F-4625-BB6F-60C49126970B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9273737" y="39349746"/>
+          <a:ext cx="1213943" cy="496685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>账户</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502852</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>33210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392496</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>33210</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4627AF09-B99E-45E4-83EE-E1C6ECAD5A70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="257" idx="3"/>
+          <a:endCxn id="262" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8017749" y="37371210"/>
+          <a:ext cx="1255988" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502852</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>33210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>385928</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>13503</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56921E8B-6C2C-4C73-8671-35FE6A5C5BC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="257" idx="3"/>
+          <a:endCxn id="263" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8017749" y="37371210"/>
+          <a:ext cx="1249420" cy="716017"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502852</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>385927</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>20072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接箭头连接符 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08C95AA-5017-4C0C-9A02-BC92C64F23C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="259" idx="3"/>
+          <a:endCxn id="264" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8017749" y="38126641"/>
+          <a:ext cx="1249419" cy="702879"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>496283</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>33210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392496</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直接箭头连接符 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF123374-DA98-44CB-89CF-683C4BB4744C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="261" idx="3"/>
+          <a:endCxn id="265" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8011180" y="38842658"/>
+          <a:ext cx="1262557" cy="755431"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>496283</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>33210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392496</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>33210</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接箭头连接符 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8CE320-22B7-4A76-A834-99A8BAFEADD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="261" idx="3"/>
+          <a:endCxn id="262" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8011180" y="37371210"/>
+          <a:ext cx="1262557" cy="1471448"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>648685</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>249621</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="266" name="矩形 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1528A5A7-384A-4D20-BB9D-53AFE51AA2A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6797237" y="40162655"/>
+          <a:ext cx="3699970" cy="788276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>角色模型采用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>m*n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>机制，客户端在执行一项业务逻辑时就可以连接服务器检查角色信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16252,8 +18137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T119" sqref="T119"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T213" sqref="T213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
